--- a/AHT_project_RCA.xlsx
+++ b/AHT_project_RCA.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LSSBB\LSSBB TEST PAPERS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33BE7B0-4AF5-4C92-A32B-8E1508416734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD79A9-6044-4A90-A8E4-E7CF4757D422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="880" firstSheet="3" activeTab="3" xr2:uid="{719ABA3B-F7CF-456C-A1E1-3B2D64E8B453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="880" xr2:uid="{719ABA3B-F7CF-456C-A1E1-3B2D64E8B453}"/>
   </bookViews>
   <sheets>
     <sheet name="AHT DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="RCA(Manager)" sheetId="12" r:id="rId2"/>
-    <sheet name="RCA(Qualification)" sheetId="11" r:id="rId3"/>
-    <sheet name="RCA(Shift Time)" sheetId="10" r:id="rId4"/>
-    <sheet name="RCA(Ticket Handler)" sheetId="5" r:id="rId5"/>
-    <sheet name="RCA(Gender)" sheetId="4" r:id="rId6"/>
-    <sheet name="RCA(Back Ground)" sheetId="7" r:id="rId7"/>
-    <sheet name="RCA(Ticket Type)" sheetId="9" r:id="rId8"/>
-    <sheet name="Correlation Analysis" sheetId="8" r:id="rId9"/>
-    <sheet name="RCA Summary" sheetId="13" r:id="rId10"/>
+    <sheet name="Normality Test" sheetId="14" r:id="rId2"/>
+    <sheet name="RCA(Manager)" sheetId="12" r:id="rId3"/>
+    <sheet name="RCA(Qualification)" sheetId="11" r:id="rId4"/>
+    <sheet name="RCA(Shift Time)" sheetId="10" r:id="rId5"/>
+    <sheet name="RCA(Ticket Handler)" sheetId="5" r:id="rId6"/>
+    <sheet name="RCA(Gender)" sheetId="4" r:id="rId7"/>
+    <sheet name="RCA(Back Ground)" sheetId="7" r:id="rId8"/>
+    <sheet name="RCA(Ticket Type)" sheetId="9" r:id="rId9"/>
+    <sheet name="Correlation Analysis" sheetId="8" r:id="rId10"/>
+    <sheet name="RCA Summary" sheetId="13" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AHT DATA'!$A$2:$I$183</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="110">
   <si>
     <t>Average Handling Time (Min)</t>
   </si>
@@ -389,6 +390,15 @@
   <si>
     <t>RCA verdict :-Fail to  Reject the Null Hypothesis</t>
   </si>
+  <si>
+    <t>Normality Test (Anderson Darling)</t>
+  </si>
+  <si>
+    <t>P value of the given data set is 0.0587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the p value is greater the 0.05 the Data is Normal </t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +409,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000000000000000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +510,21 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,19 +735,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -740,47 +803,15 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2861,6 +2892,72 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2519E08E-F9CF-46AB-ACCC-CFC55522C16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="485774" y="962025"/>
+          <a:ext cx="6124575" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -3317,7 +3414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3673,7 +3770,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3714,7 +3811,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4533,8 +4630,8 @@
   </sheetPr>
   <dimension ref="A1:X183"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4551,48 +4648,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -9878,6 +9975,1529 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F332AD78-A8A0-42D9-9A3E-B554EC31CCDE}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N184"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>18.968725398829136</v>
+      </c>
+      <c r="B4" s="4">
+        <v>84.13000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12.940201017959042</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>16.180459925721994</v>
+      </c>
+      <c r="B6" s="4">
+        <v>64.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>13.035212675886985</v>
+      </c>
+      <c r="B7" s="4">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>18.185879759154556</v>
+      </c>
+      <c r="B8" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>15.468596153624718</v>
+      </c>
+      <c r="B9" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>21.970707905193031</v>
+      </c>
+      <c r="B10" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>19.133632522695716</v>
+      </c>
+      <c r="B11" s="4">
+        <v>95.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13.981973731667683</v>
+      </c>
+      <c r="B12" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>23.242161505704381</v>
+      </c>
+      <c r="B13" s="4">
+        <v>75.429999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>24.556517630597902</v>
+      </c>
+      <c r="B14" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>18.210514268509574</v>
+      </c>
+      <c r="B15" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>23.218900626749384</v>
+      </c>
+      <c r="B16" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>25.376548201241306</v>
+      </c>
+      <c r="B17" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18.28563977502553</v>
+      </c>
+      <c r="B18" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>23.643302094500651</v>
+      </c>
+      <c r="B19" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15.347500120342517</v>
+      </c>
+      <c r="B20" s="4">
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>15.692773217639706</v>
+      </c>
+      <c r="B21" s="4">
+        <v>56.999999999999993</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="12">
+        <f>CORREL(A4:A184,B4:B184)</f>
+        <v>2.9767221401880441E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18.354128178310006</v>
+      </c>
+      <c r="B22" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20.241583337361799</v>
+      </c>
+      <c r="B23" s="4">
+        <v>33</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>18.719748066085725</v>
+      </c>
+      <c r="B24" s="4">
+        <v>40</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>13.229089324268559</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45.660000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>16.272809485084064</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>21.725856972912513</v>
+      </c>
+      <c r="B27" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>16.641173873164011</v>
+      </c>
+      <c r="B28" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>14.232383200836955</v>
+      </c>
+      <c r="B29" s="4">
+        <v>65.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>19.303900840094432</v>
+      </c>
+      <c r="B30" s="4">
+        <v>55.789999999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>26.060798342561228</v>
+      </c>
+      <c r="B31" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>21.086868002561463</v>
+      </c>
+      <c r="B32" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>18.149417160203487</v>
+      </c>
+      <c r="B33" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>19.352830908620074</v>
+      </c>
+      <c r="B34" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>13.032418401632441</v>
+      </c>
+      <c r="B35" s="4">
+        <v>93.54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>18.190717452401159</v>
+      </c>
+      <c r="B36" s="4">
+        <v>96.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>10.688368971733537</v>
+      </c>
+      <c r="B37" s="4">
+        <v>93.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>20.91801363244678</v>
+      </c>
+      <c r="B38" s="4">
+        <v>84.13000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>14.5254189032764</v>
+      </c>
+      <c r="B39" s="4">
+        <v>63.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>13.681704862513033</v>
+      </c>
+      <c r="B40" s="4">
+        <v>64.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>15.646824193001279</v>
+      </c>
+      <c r="B41" s="4">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>22.609859377795384</v>
+      </c>
+      <c r="B42" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>21.33936994604959</v>
+      </c>
+      <c r="B43" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>17.438531688308405</v>
+      </c>
+      <c r="B44" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>15.712149379763186</v>
+      </c>
+      <c r="B45" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>20.022904146358041</v>
+      </c>
+      <c r="B46" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>21.360233619609396</v>
+      </c>
+      <c r="B47" s="4">
+        <v>95.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>19.764206484475935</v>
+      </c>
+      <c r="B48" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>19.267966193452249</v>
+      </c>
+      <c r="B49" s="4">
+        <v>75.429999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>15.546879067102029</v>
+      </c>
+      <c r="B50" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>15.436824163728179</v>
+      </c>
+      <c r="B51" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>25.232767625133953</v>
+      </c>
+      <c r="B52" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>22.307613201056775</v>
+      </c>
+      <c r="B53" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>22.423854215499496</v>
+      </c>
+      <c r="B54" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>15.053910923658318</v>
+      </c>
+      <c r="B55" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>13.192638990403255</v>
+      </c>
+      <c r="B56" s="4">
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>23.415097682961935</v>
+      </c>
+      <c r="B57" s="4">
+        <v>56.999999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>15.075965055126584</v>
+      </c>
+      <c r="B58" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>12.146231578282283</v>
+      </c>
+      <c r="B59" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>19.731188850321445</v>
+      </c>
+      <c r="B60" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>21.651783700700083</v>
+      </c>
+      <c r="B61" s="4">
+        <v>45.660000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>13.297550175504178</v>
+      </c>
+      <c r="B62" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>15.062941401521192</v>
+      </c>
+      <c r="B63" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>12.546695696739713</v>
+      </c>
+      <c r="B64" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>16.602378198135995</v>
+      </c>
+      <c r="B65" s="4">
+        <v>65.69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>11.830124888853549</v>
+      </c>
+      <c r="B66" s="4">
+        <v>55.789999999999992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>22.275330157296647</v>
+      </c>
+      <c r="B67" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>22.988522573595574</v>
+      </c>
+      <c r="B68" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>16.932677659524536</v>
+      </c>
+      <c r="B69" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>18.074737487170356</v>
+      </c>
+      <c r="B70" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>20.611463574395771</v>
+      </c>
+      <c r="B71" s="4">
+        <v>93.54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>16.345296847925727</v>
+      </c>
+      <c r="B72" s="4">
+        <v>96.44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>15.621164025775499</v>
+      </c>
+      <c r="B73" s="4">
+        <v>93.11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>22.715658111919172</v>
+      </c>
+      <c r="B74" s="4">
+        <v>84.13000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>13.067689439301677</v>
+      </c>
+      <c r="B75" s="4">
+        <v>63.32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>19.570518953655903</v>
+      </c>
+      <c r="B76" s="4">
+        <v>64.55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>21.800364938290333</v>
+      </c>
+      <c r="B77" s="4">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>12.340241175490011</v>
+      </c>
+      <c r="B78" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>18.988838140951685</v>
+      </c>
+      <c r="B79" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>16.757468525829719</v>
+      </c>
+      <c r="B80" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>21.646084161512373</v>
+      </c>
+      <c r="B81" s="4">
+        <v>95.34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>21.910703044773729</v>
+      </c>
+      <c r="B82" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>24.181348765162632</v>
+      </c>
+      <c r="B83" s="4">
+        <v>75.429999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>12.025701985976138</v>
+      </c>
+      <c r="B84" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>18.356849908169572</v>
+      </c>
+      <c r="B85" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>15.619202550115817</v>
+      </c>
+      <c r="B86" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>20.055472842288406</v>
+      </c>
+      <c r="B87" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>19.910207135874256</v>
+      </c>
+      <c r="B88" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>14.060593916731548</v>
+      </c>
+      <c r="B89" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>22.054703358381438</v>
+      </c>
+      <c r="B90" s="4">
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>22.982681022392363</v>
+      </c>
+      <c r="B91" s="4">
+        <v>56.999999999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>15.03682351753071</v>
+      </c>
+      <c r="B92" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>15.521219110485447</v>
+      </c>
+      <c r="B93" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>20.518698834797497</v>
+      </c>
+      <c r="B94" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>22.195033626097658</v>
+      </c>
+      <c r="B95" s="4">
+        <v>45.660000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>17.863332872211846</v>
+      </c>
+      <c r="B96" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>24.133260899957563</v>
+      </c>
+      <c r="B97" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>17.998946964911529</v>
+      </c>
+      <c r="B98" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>23.885776746935253</v>
+      </c>
+      <c r="B99" s="4">
+        <v>65.69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>18.646597629723107</v>
+      </c>
+      <c r="B100" s="4">
+        <v>55.789999999999992</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>23.193916489527538</v>
+      </c>
+      <c r="B101" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>16.831770305247659</v>
+      </c>
+      <c r="B102" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>16.594403643207006</v>
+      </c>
+      <c r="B103" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>20.780592343337347</v>
+      </c>
+      <c r="B104" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>19.754746970612622</v>
+      </c>
+      <c r="B105" s="4">
+        <v>93.54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>21.645786192065991</v>
+      </c>
+      <c r="B106" s="4">
+        <v>96.44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>15.121312491634024</v>
+      </c>
+      <c r="B107" s="4">
+        <v>93.11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>20.588621894459369</v>
+      </c>
+      <c r="B108" s="4">
+        <v>84.13000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>19.84655610234369</v>
+      </c>
+      <c r="B109" s="4">
+        <v>63.32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>22.644700715630371</v>
+      </c>
+      <c r="B110" s="4">
+        <v>64.55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>18.827374748878647</v>
+      </c>
+      <c r="B111" s="4">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>23.306056275527151</v>
+      </c>
+      <c r="B112" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>18.699535672039424</v>
+      </c>
+      <c r="B113" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>18.899924238696407</v>
+      </c>
+      <c r="B114" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>20.863981369962985</v>
+      </c>
+      <c r="B115" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>9.4270395792219279</v>
+      </c>
+      <c r="B116" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>23.83336358458504</v>
+      </c>
+      <c r="B117" s="4">
+        <v>95.34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>23.881030220009627</v>
+      </c>
+      <c r="B118" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>18.762749787581985</v>
+      </c>
+      <c r="B119" s="4">
+        <v>75.429999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>16.466026566201052</v>
+      </c>
+      <c r="B120" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>18.975331424533007</v>
+      </c>
+      <c r="B121" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>20.049472368954149</v>
+      </c>
+      <c r="B122" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>21.052516041044523</v>
+      </c>
+      <c r="B123" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>15.566139212951464</v>
+      </c>
+      <c r="B124" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>17.154547186795792</v>
+      </c>
+      <c r="B125" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>17.696205019582337</v>
+      </c>
+      <c r="B126" s="4">
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>17.067265997822165</v>
+      </c>
+      <c r="B127" s="4">
+        <v>56.999999999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>11.255155200610522</v>
+      </c>
+      <c r="B128" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>23.168449119663627</v>
+      </c>
+      <c r="B129" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>18.603567224056135</v>
+      </c>
+      <c r="B130" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>20.702313477637418</v>
+      </c>
+      <c r="B131" s="4">
+        <v>45.660000000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>19.745963396087504</v>
+      </c>
+      <c r="B132" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>20.265052205714237</v>
+      </c>
+      <c r="B133" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>16.037737385712504</v>
+      </c>
+      <c r="B134" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>23.528729116286776</v>
+      </c>
+      <c r="B135" s="4">
+        <v>65.69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>18.289878634355379</v>
+      </c>
+      <c r="B136" s="4">
+        <v>55.789999999999992</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>16.403319793748718</v>
+      </c>
+      <c r="B137" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>17.447558277514798</v>
+      </c>
+      <c r="B138" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>14.894414291781267</v>
+      </c>
+      <c r="B139" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>20.685085520583844</v>
+      </c>
+      <c r="B140" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>11.141526936673632</v>
+      </c>
+      <c r="B141" s="4">
+        <v>93.54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>16.643327800563721</v>
+      </c>
+      <c r="B142" s="4">
+        <v>96.44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>18.365181360143051</v>
+      </c>
+      <c r="B143" s="4">
+        <v>93.11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>19.78706318301106</v>
+      </c>
+      <c r="B144" s="4">
+        <v>84.13000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>16.665053055434345</v>
+      </c>
+      <c r="B145" s="4">
+        <v>63.32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>21.961807649289174</v>
+      </c>
+      <c r="B146" s="4">
+        <v>64.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>22.692600850189653</v>
+      </c>
+      <c r="B147" s="4">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>14.73030141483618</v>
+      </c>
+      <c r="B148" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>22.705048298616248</v>
+      </c>
+      <c r="B149" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>13.569736449899541</v>
+      </c>
+      <c r="B150" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>20.79348911811903</v>
+      </c>
+      <c r="B151" s="4">
+        <v>95.34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>24.548032435152209</v>
+      </c>
+      <c r="B152" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>17.020666065000494</v>
+      </c>
+      <c r="B153" s="4">
+        <v>75.429999999999993</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>22.825264278038734</v>
+      </c>
+      <c r="B154" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>16.837078476050714</v>
+      </c>
+      <c r="B155" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>32.888638306070014</v>
+      </c>
+      <c r="B156" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>19.4020542073157</v>
+      </c>
+      <c r="B157" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>25.068935982934065</v>
+      </c>
+      <c r="B158" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>15.73518420311056</v>
+      </c>
+      <c r="B159" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>17.186476891575943</v>
+      </c>
+      <c r="B160" s="4">
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>19.846702790887214</v>
+      </c>
+      <c r="B161" s="4">
+        <v>56.999999999999993</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>19.840462893346697</v>
+      </c>
+      <c r="B162" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>13.974896655742743</v>
+      </c>
+      <c r="B163" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>15.371133992174009</v>
+      </c>
+      <c r="B164" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>15.983738753280569</v>
+      </c>
+      <c r="B165" s="4">
+        <v>45.660000000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>24.010533989860491</v>
+      </c>
+      <c r="B166" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>15.967994400030751</v>
+      </c>
+      <c r="B167" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>17.777173016364117</v>
+      </c>
+      <c r="B168" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>20.337212023528089</v>
+      </c>
+      <c r="B169" s="4">
+        <v>65.69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>6.1413758862373964</v>
+      </c>
+      <c r="B170" s="4">
+        <v>55.789999999999992</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>25.53072633656344</v>
+      </c>
+      <c r="B171" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>20.29549563805346</v>
+      </c>
+      <c r="B172" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>24.407514506441281</v>
+      </c>
+      <c r="B173" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>19.495240460958787</v>
+      </c>
+      <c r="B174" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>20.102937742150225</v>
+      </c>
+      <c r="B175" s="4">
+        <v>93.54</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>25.087334073542522</v>
+      </c>
+      <c r="B176" s="4">
+        <v>96.44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>14.408682645243566</v>
+      </c>
+      <c r="B177" s="4">
+        <v>93.11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>19.252986929075565</v>
+      </c>
+      <c r="B178" s="4">
+        <v>84.13000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>19.647510940721663</v>
+      </c>
+      <c r="B179" s="4">
+        <v>63.32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>17.058421810415751</v>
+      </c>
+      <c r="B180" s="4">
+        <v>64.55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>21.173931861719137</v>
+      </c>
+      <c r="B181" s="4">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>16.044255662704451</v>
+      </c>
+      <c r="B182" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>17.996393265616213</v>
+      </c>
+      <c r="B183" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>13.282209708162661</v>
+      </c>
+      <c r="B184" s="4">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:N24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E9E032-E2D7-48CF-989D-AE0CBF891E9B}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
@@ -9896,6 +11516,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E9D4B8-976C-4126-8962-60B34EA4873F}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="B2:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="27" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+    </row>
+    <row r="29" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C29:J29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E19B03-0CBE-4657-A28C-38DE180CED19}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -10565,23 +12243,23 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
@@ -10599,8 +12277,8 @@
       <c r="E53" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
@@ -10618,8 +12296,8 @@
       <c r="E54" s="17">
         <v>11.666533304525641</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
@@ -10637,8 +12315,8 @@
       <c r="E55" s="17">
         <v>14.780549778683621</v>
       </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
@@ -10656,8 +12334,8 @@
       <c r="E56" s="17">
         <v>15.186349515133136</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
@@ -10675,8 +12353,8 @@
       <c r="E57" s="17">
         <v>20.250901304348059</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
@@ -10694,37 +12372,37 @@
       <c r="E58" s="17">
         <v>15.065686322821181</v>
       </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
@@ -10765,7 +12443,7 @@
       <c r="E63" s="17">
         <v>1.0886337902016678</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="20">
         <v>0.36369808395971198</v>
       </c>
       <c r="G63" s="17">
@@ -10814,24 +12492,24 @@
       <c r="G66" s="17"/>
     </row>
     <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
     </row>
     <row r="70" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="37"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10844,7 +12522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6849F1A1-2222-4DB4-9EE8-3E1EDFC29830}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -10978,14 +12656,14 @@
       <c r="A17" s="1">
         <v>13.681704862513033</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -10996,15 +12674,15 @@
       <c r="A19" s="1">
         <v>20.022904146358041</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -11025,8 +12703,8 @@
       <c r="G20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -11047,8 +12725,8 @@
       <c r="G21" s="17">
         <v>7.277434015660317</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -11069,8 +12747,8 @@
       <c r="G22" s="17" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -11091,46 +12769,46 @@
       <c r="G23" s="17">
         <v>12.508199287595339</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>14.060593916731548</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18.646597629723107</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>16.831770305247659</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -11177,7 +12855,7 @@
       <c r="G28" s="17">
         <v>0.52632830722437696</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="20">
         <v>0.59512709993405599</v>
       </c>
       <c r="I28" s="17">
@@ -11240,24 +12918,24 @@
       </c>
     </row>
     <row r="34" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="36" spans="3:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11271,14 +12949,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE9A595-5C8F-4DA9-B920-6E944EA4CC47}">
   <sheetPr>
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
   <dimension ref="A3:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -11306,11 +12984,11 @@
       <c r="B4" s="1">
         <v>12.940201017959042</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -11479,11 +13157,11 @@
       <c r="B17" s="1">
         <v>13.681704862513033</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -11694,11 +13372,11 @@
       <c r="B32" s="1">
         <v>18.899924238696407</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -11715,13 +13393,13 @@
       <c r="B34" s="1">
         <v>16.466026566201052</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -11801,7 +13479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A79ABA6-AADC-4EE6-9425-FCE50235342D}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -11822,12 +13500,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -12609,13 +14287,13 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -12800,18 +14478,18 @@
       <c r="G99" s="8"/>
     </row>
     <row r="101" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="21"/>
+      <c r="B101" s="39"/>
     </row>
     <row r="103" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12824,7 +14502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD474A-2150-4006-A74A-D64649B340E3}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -12892,11 +14570,11 @@
       <c r="B7" s="1">
         <v>18.28563977502553</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -13057,11 +14735,11 @@
       <c r="B19" s="1">
         <v>15.075965055126584</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -13280,10 +14958,10 @@
       <c r="B35" s="1">
         <v>21.646084161512373</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -13300,12 +14978,12 @@
       <c r="B37" s="1">
         <v>24.181348765162632</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -13783,7 +15461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763E1D74-B124-4201-833E-EBF50668F588}">
   <sheetPr>
     <tabColor theme="3" tint="-0.249977111117893"/>
@@ -14463,13 +16141,13 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -14654,18 +16332,18 @@
       <c r="G70" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="25"/>
+      <c r="B72" s="41"/>
     </row>
     <row r="74" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="40"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14676,7 +16354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2A336D-0EC3-46FC-BA80-8B5FEBA096A7}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -14711,11 +16389,11 @@
       <c r="B4" s="1">
         <v>12.940201017959042</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -14884,11 +16562,11 @@
       <c r="B17" s="1">
         <v>16.272809485084064</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -15107,10 +16785,10 @@
       <c r="B33" s="1">
         <v>19.731188850321445</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -15127,12 +16805,12 @@
       <c r="B35" s="1">
         <v>15.062941401521192</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -15638,1527 +17316,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F332AD78-A8A0-42D9-9A3E-B554EC31CCDE}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:N184"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>18.968725398829136</v>
-      </c>
-      <c r="B4" s="4">
-        <v>84.13000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>12.940201017959042</v>
-      </c>
-      <c r="B5" s="4">
-        <v>63.32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>16.180459925721994</v>
-      </c>
-      <c r="B6" s="4">
-        <v>64.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>13.035212675886985</v>
-      </c>
-      <c r="B7" s="4">
-        <v>12.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>18.185879759154556</v>
-      </c>
-      <c r="B8" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>15.468596153624718</v>
-      </c>
-      <c r="B9" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>21.970707905193031</v>
-      </c>
-      <c r="B10" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>19.133632522695716</v>
-      </c>
-      <c r="B11" s="4">
-        <v>95.34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>13.981973731667683</v>
-      </c>
-      <c r="B12" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>23.242161505704381</v>
-      </c>
-      <c r="B13" s="4">
-        <v>75.429999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>24.556517630597902</v>
-      </c>
-      <c r="B14" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>18.210514268509574</v>
-      </c>
-      <c r="B15" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>23.218900626749384</v>
-      </c>
-      <c r="B16" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>25.376548201241306</v>
-      </c>
-      <c r="B17" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>18.28563977502553</v>
-      </c>
-      <c r="B18" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>23.643302094500651</v>
-      </c>
-      <c r="B19" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>15.347500120342517</v>
-      </c>
-      <c r="B20" s="4">
-        <v>55.000000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>15.692773217639706</v>
-      </c>
-      <c r="B21" s="4">
-        <v>56.999999999999993</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="12">
-        <f>CORREL(A4:A184,B4:B184)</f>
-        <v>2.9767221401880441E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18.354128178310006</v>
-      </c>
-      <c r="B22" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>20.241583337361799</v>
-      </c>
-      <c r="B23" s="4">
-        <v>33</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>18.719748066085725</v>
-      </c>
-      <c r="B24" s="4">
-        <v>40</v>
-      </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>13.229089324268559</v>
-      </c>
-      <c r="B25" s="4">
-        <v>45.660000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>16.272809485084064</v>
-      </c>
-      <c r="B26" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>21.725856972912513</v>
-      </c>
-      <c r="B27" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>16.641173873164011</v>
-      </c>
-      <c r="B28" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>14.232383200836955</v>
-      </c>
-      <c r="B29" s="4">
-        <v>65.69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>19.303900840094432</v>
-      </c>
-      <c r="B30" s="4">
-        <v>55.789999999999992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>26.060798342561228</v>
-      </c>
-      <c r="B31" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>21.086868002561463</v>
-      </c>
-      <c r="B32" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>18.149417160203487</v>
-      </c>
-      <c r="B33" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>19.352830908620074</v>
-      </c>
-      <c r="B34" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>13.032418401632441</v>
-      </c>
-      <c r="B35" s="4">
-        <v>93.54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>18.190717452401159</v>
-      </c>
-      <c r="B36" s="4">
-        <v>96.44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>10.688368971733537</v>
-      </c>
-      <c r="B37" s="4">
-        <v>93.11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>20.91801363244678</v>
-      </c>
-      <c r="B38" s="4">
-        <v>84.13000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>14.5254189032764</v>
-      </c>
-      <c r="B39" s="4">
-        <v>63.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>13.681704862513033</v>
-      </c>
-      <c r="B40" s="4">
-        <v>64.55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>15.646824193001279</v>
-      </c>
-      <c r="B41" s="4">
-        <v>12.22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>22.609859377795384</v>
-      </c>
-      <c r="B42" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>21.33936994604959</v>
-      </c>
-      <c r="B43" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>17.438531688308405</v>
-      </c>
-      <c r="B44" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>15.712149379763186</v>
-      </c>
-      <c r="B45" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>20.022904146358041</v>
-      </c>
-      <c r="B46" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>21.360233619609396</v>
-      </c>
-      <c r="B47" s="4">
-        <v>95.34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>19.764206484475935</v>
-      </c>
-      <c r="B48" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>19.267966193452249</v>
-      </c>
-      <c r="B49" s="4">
-        <v>75.429999999999993</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>15.546879067102029</v>
-      </c>
-      <c r="B50" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>15.436824163728179</v>
-      </c>
-      <c r="B51" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>25.232767625133953</v>
-      </c>
-      <c r="B52" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>22.307613201056775</v>
-      </c>
-      <c r="B53" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>22.423854215499496</v>
-      </c>
-      <c r="B54" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>15.053910923658318</v>
-      </c>
-      <c r="B55" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>13.192638990403255</v>
-      </c>
-      <c r="B56" s="4">
-        <v>55.000000000000007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>23.415097682961935</v>
-      </c>
-      <c r="B57" s="4">
-        <v>56.999999999999993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>15.075965055126584</v>
-      </c>
-      <c r="B58" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>12.146231578282283</v>
-      </c>
-      <c r="B59" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>19.731188850321445</v>
-      </c>
-      <c r="B60" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>21.651783700700083</v>
-      </c>
-      <c r="B61" s="4">
-        <v>45.660000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>13.297550175504178</v>
-      </c>
-      <c r="B62" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>15.062941401521192</v>
-      </c>
-      <c r="B63" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>12.546695696739713</v>
-      </c>
-      <c r="B64" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>16.602378198135995</v>
-      </c>
-      <c r="B65" s="4">
-        <v>65.69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>11.830124888853549</v>
-      </c>
-      <c r="B66" s="4">
-        <v>55.789999999999992</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>22.275330157296647</v>
-      </c>
-      <c r="B67" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>22.988522573595574</v>
-      </c>
-      <c r="B68" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>16.932677659524536</v>
-      </c>
-      <c r="B69" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>18.074737487170356</v>
-      </c>
-      <c r="B70" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>20.611463574395771</v>
-      </c>
-      <c r="B71" s="4">
-        <v>93.54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>16.345296847925727</v>
-      </c>
-      <c r="B72" s="4">
-        <v>96.44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>15.621164025775499</v>
-      </c>
-      <c r="B73" s="4">
-        <v>93.11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>22.715658111919172</v>
-      </c>
-      <c r="B74" s="4">
-        <v>84.13000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>13.067689439301677</v>
-      </c>
-      <c r="B75" s="4">
-        <v>63.32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>19.570518953655903</v>
-      </c>
-      <c r="B76" s="4">
-        <v>64.55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>21.800364938290333</v>
-      </c>
-      <c r="B77" s="4">
-        <v>12.22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>12.340241175490011</v>
-      </c>
-      <c r="B78" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>18.988838140951685</v>
-      </c>
-      <c r="B79" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>16.757468525829719</v>
-      </c>
-      <c r="B80" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>21.646084161512373</v>
-      </c>
-      <c r="B81" s="4">
-        <v>95.34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>21.910703044773729</v>
-      </c>
-      <c r="B82" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>24.181348765162632</v>
-      </c>
-      <c r="B83" s="4">
-        <v>75.429999999999993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>12.025701985976138</v>
-      </c>
-      <c r="B84" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>18.356849908169572</v>
-      </c>
-      <c r="B85" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>15.619202550115817</v>
-      </c>
-      <c r="B86" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>20.055472842288406</v>
-      </c>
-      <c r="B87" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>19.910207135874256</v>
-      </c>
-      <c r="B88" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>14.060593916731548</v>
-      </c>
-      <c r="B89" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>22.054703358381438</v>
-      </c>
-      <c r="B90" s="4">
-        <v>55.000000000000007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>22.982681022392363</v>
-      </c>
-      <c r="B91" s="4">
-        <v>56.999999999999993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>15.03682351753071</v>
-      </c>
-      <c r="B92" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>15.521219110485447</v>
-      </c>
-      <c r="B93" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>20.518698834797497</v>
-      </c>
-      <c r="B94" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>22.195033626097658</v>
-      </c>
-      <c r="B95" s="4">
-        <v>45.660000000000004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>17.863332872211846</v>
-      </c>
-      <c r="B96" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>24.133260899957563</v>
-      </c>
-      <c r="B97" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>17.998946964911529</v>
-      </c>
-      <c r="B98" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>23.885776746935253</v>
-      </c>
-      <c r="B99" s="4">
-        <v>65.69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>18.646597629723107</v>
-      </c>
-      <c r="B100" s="4">
-        <v>55.789999999999992</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>23.193916489527538</v>
-      </c>
-      <c r="B101" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>16.831770305247659</v>
-      </c>
-      <c r="B102" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>16.594403643207006</v>
-      </c>
-      <c r="B103" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>20.780592343337347</v>
-      </c>
-      <c r="B104" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>19.754746970612622</v>
-      </c>
-      <c r="B105" s="4">
-        <v>93.54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>21.645786192065991</v>
-      </c>
-      <c r="B106" s="4">
-        <v>96.44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>15.121312491634024</v>
-      </c>
-      <c r="B107" s="4">
-        <v>93.11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>20.588621894459369</v>
-      </c>
-      <c r="B108" s="4">
-        <v>84.13000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>19.84655610234369</v>
-      </c>
-      <c r="B109" s="4">
-        <v>63.32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>22.644700715630371</v>
-      </c>
-      <c r="B110" s="4">
-        <v>64.55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>18.827374748878647</v>
-      </c>
-      <c r="B111" s="4">
-        <v>12.22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>23.306056275527151</v>
-      </c>
-      <c r="B112" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>18.699535672039424</v>
-      </c>
-      <c r="B113" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>18.899924238696407</v>
-      </c>
-      <c r="B114" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>20.863981369962985</v>
-      </c>
-      <c r="B115" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>9.4270395792219279</v>
-      </c>
-      <c r="B116" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>23.83336358458504</v>
-      </c>
-      <c r="B117" s="4">
-        <v>95.34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>23.881030220009627</v>
-      </c>
-      <c r="B118" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>18.762749787581985</v>
-      </c>
-      <c r="B119" s="4">
-        <v>75.429999999999993</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>16.466026566201052</v>
-      </c>
-      <c r="B120" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>18.975331424533007</v>
-      </c>
-      <c r="B121" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>20.049472368954149</v>
-      </c>
-      <c r="B122" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>21.052516041044523</v>
-      </c>
-      <c r="B123" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>15.566139212951464</v>
-      </c>
-      <c r="B124" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>17.154547186795792</v>
-      </c>
-      <c r="B125" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>17.696205019582337</v>
-      </c>
-      <c r="B126" s="4">
-        <v>55.000000000000007</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>17.067265997822165</v>
-      </c>
-      <c r="B127" s="4">
-        <v>56.999999999999993</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>11.255155200610522</v>
-      </c>
-      <c r="B128" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>23.168449119663627</v>
-      </c>
-      <c r="B129" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>18.603567224056135</v>
-      </c>
-      <c r="B130" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>20.702313477637418</v>
-      </c>
-      <c r="B131" s="4">
-        <v>45.660000000000004</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>19.745963396087504</v>
-      </c>
-      <c r="B132" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>20.265052205714237</v>
-      </c>
-      <c r="B133" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>16.037737385712504</v>
-      </c>
-      <c r="B134" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>23.528729116286776</v>
-      </c>
-      <c r="B135" s="4">
-        <v>65.69</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>18.289878634355379</v>
-      </c>
-      <c r="B136" s="4">
-        <v>55.789999999999992</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>16.403319793748718</v>
-      </c>
-      <c r="B137" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>17.447558277514798</v>
-      </c>
-      <c r="B138" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>14.894414291781267</v>
-      </c>
-      <c r="B139" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>20.685085520583844</v>
-      </c>
-      <c r="B140" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>11.141526936673632</v>
-      </c>
-      <c r="B141" s="4">
-        <v>93.54</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>16.643327800563721</v>
-      </c>
-      <c r="B142" s="4">
-        <v>96.44</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>18.365181360143051</v>
-      </c>
-      <c r="B143" s="4">
-        <v>93.11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>19.78706318301106</v>
-      </c>
-      <c r="B144" s="4">
-        <v>84.13000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>16.665053055434345</v>
-      </c>
-      <c r="B145" s="4">
-        <v>63.32</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>21.961807649289174</v>
-      </c>
-      <c r="B146" s="4">
-        <v>64.55</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>22.692600850189653</v>
-      </c>
-      <c r="B147" s="4">
-        <v>12.22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>14.73030141483618</v>
-      </c>
-      <c r="B148" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>22.705048298616248</v>
-      </c>
-      <c r="B149" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>13.569736449899541</v>
-      </c>
-      <c r="B150" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>20.79348911811903</v>
-      </c>
-      <c r="B151" s="4">
-        <v>95.34</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>24.548032435152209</v>
-      </c>
-      <c r="B152" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>17.020666065000494</v>
-      </c>
-      <c r="B153" s="4">
-        <v>75.429999999999993</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>22.825264278038734</v>
-      </c>
-      <c r="B154" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>16.837078476050714</v>
-      </c>
-      <c r="B155" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>32.888638306070014</v>
-      </c>
-      <c r="B156" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>19.4020542073157</v>
-      </c>
-      <c r="B157" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>25.068935982934065</v>
-      </c>
-      <c r="B158" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>15.73518420311056</v>
-      </c>
-      <c r="B159" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>17.186476891575943</v>
-      </c>
-      <c r="B160" s="4">
-        <v>55.000000000000007</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>19.846702790887214</v>
-      </c>
-      <c r="B161" s="4">
-        <v>56.999999999999993</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>19.840462893346697</v>
-      </c>
-      <c r="B162" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>13.974896655742743</v>
-      </c>
-      <c r="B163" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>15.371133992174009</v>
-      </c>
-      <c r="B164" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>15.983738753280569</v>
-      </c>
-      <c r="B165" s="4">
-        <v>45.660000000000004</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>24.010533989860491</v>
-      </c>
-      <c r="B166" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>15.967994400030751</v>
-      </c>
-      <c r="B167" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>17.777173016364117</v>
-      </c>
-      <c r="B168" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>20.337212023528089</v>
-      </c>
-      <c r="B169" s="4">
-        <v>65.69</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>6.1413758862373964</v>
-      </c>
-      <c r="B170" s="4">
-        <v>55.789999999999992</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>25.53072633656344</v>
-      </c>
-      <c r="B171" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>20.29549563805346</v>
-      </c>
-      <c r="B172" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>24.407514506441281</v>
-      </c>
-      <c r="B173" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>19.495240460958787</v>
-      </c>
-      <c r="B174" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>20.102937742150225</v>
-      </c>
-      <c r="B175" s="4">
-        <v>93.54</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>25.087334073542522</v>
-      </c>
-      <c r="B176" s="4">
-        <v>96.44</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>14.408682645243566</v>
-      </c>
-      <c r="B177" s="4">
-        <v>93.11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>19.252986929075565</v>
-      </c>
-      <c r="B178" s="4">
-        <v>84.13000000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>19.647510940721663</v>
-      </c>
-      <c r="B179" s="4">
-        <v>63.32</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>17.058421810415751</v>
-      </c>
-      <c r="B180" s="4">
-        <v>64.55</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>21.173931861719137</v>
-      </c>
-      <c r="B181" s="4">
-        <v>12.22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>16.044255662704451</v>
-      </c>
-      <c r="B182" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>17.996393265616213</v>
-      </c>
-      <c r="B183" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>13.282209708162661</v>
-      </c>
-      <c r="B184" s="4">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:N24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/AHT_project_RCA.xlsx
+++ b/AHT_project_RCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LSSBB\LSSBB TEST PAPERS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD79A9-6044-4A90-A8E4-E7CF4757D422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C32499B-9557-48CC-8BAC-DA6BADDCA895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="880" xr2:uid="{719ABA3B-F7CF-456C-A1E1-3B2D64E8B453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="880" activeTab="1" xr2:uid="{719ABA3B-F7CF-456C-A1E1-3B2D64E8B453}"/>
   </bookViews>
   <sheets>
     <sheet name="AHT DATA" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
     <t>Normality Test (Anderson Darling)</t>
   </si>
   <si>
-    <t>P value of the given data set is 0.0587</t>
+    <t xml:space="preserve">Since the p value is greater the 0.05 the Data is Normal </t>
   </si>
   <si>
-    <t xml:space="preserve">Since the p value is greater the 0.05 the Data is Normal </t>
+    <t>P value of the given data set is 0.587</t>
   </si>
 </sst>
 </file>
@@ -755,6 +755,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,12 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4630,7 +4630,7 @@
   </sheetPr>
   <dimension ref="A1:X183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
@@ -9994,11 +9994,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -10151,10 +10151,10 @@
       <c r="B21" s="4">
         <v>56.999999999999993</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="12">
         <f>CORREL(A4:A184,B4:B184)</f>
         <v>2.9767221401880441E-3</v>
@@ -10175,18 +10175,18 @@
       <c r="B23" s="4">
         <v>33</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -10195,16 +10195,16 @@
       <c r="B24" s="4">
         <v>40</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -11522,44 +11522,44 @@
   </sheetPr>
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="27" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="29" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="29" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12243,23 +12243,23 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
@@ -12492,19 +12492,19 @@
       <c r="G66" s="17"/>
     </row>
     <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
     </row>
     <row r="70" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="33"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
@@ -12656,14 +12656,14 @@
       <c r="A17" s="1">
         <v>13.681704862513033</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -12674,14 +12674,14 @@
       <c r="A19" s="1">
         <v>20.022904146358041</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -12918,24 +12918,24 @@
       </c>
     </row>
     <row r="34" spans="3:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="36" spans="3:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12984,11 +12984,11 @@
       <c r="B4" s="1">
         <v>12.940201017959042</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -13157,11 +13157,11 @@
       <c r="B17" s="1">
         <v>13.681704862513033</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -13372,11 +13372,11 @@
       <c r="B32" s="1">
         <v>18.899924238696407</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -13393,13 +13393,13 @@
       <c r="B34" s="1">
         <v>16.466026566201052</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -13500,12 +13500,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -14287,13 +14287,13 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -14478,18 +14478,18 @@
       <c r="G99" s="8"/>
     </row>
     <row r="101" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="39" t="s">
+      <c r="A101" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="39"/>
+      <c r="B101" s="41"/>
     </row>
     <row r="103" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14570,11 +14570,11 @@
       <c r="B7" s="1">
         <v>18.28563977502553</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -14735,11 +14735,11 @@
       <c r="B19" s="1">
         <v>15.075965055126584</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -14958,10 +14958,10 @@
       <c r="B35" s="1">
         <v>21.646084161512373</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="39"/>
+      <c r="E35" s="41"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -14978,12 +14978,12 @@
       <c r="B37" s="1">
         <v>24.181348765162632</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -16141,13 +16141,13 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -16332,10 +16332,10 @@
       <c r="G70" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="41"/>
+      <c r="B72" s="43"/>
     </row>
     <row r="74" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A74" s="21" t="s">
@@ -16389,11 +16389,11 @@
       <c r="B4" s="1">
         <v>12.940201017959042</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -16562,11 +16562,11 @@
       <c r="B17" s="1">
         <v>16.272809485084064</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -16785,10 +16785,10 @@
       <c r="B33" s="1">
         <v>19.731188850321445</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="39"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -16805,12 +16805,12 @@
       <c r="B35" s="1">
         <v>15.062941401521192</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
